--- a/src/data/userdata.xlsx
+++ b/src/data/userdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linus\Desktop\NUS\IEX\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DD9D49-03F1-4E69-B635-7884EFDAC196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FCEED6-0B43-4D1F-AD1D-A93E85F5EB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1110" windowWidth="17355" windowHeight="14865" activeTab="2" xr2:uid="{01987FBA-0C43-4D57-A1ED-980A623EA11A}"/>
+    <workbookView xWindow="1515" yWindow="0" windowWidth="27015" windowHeight="14865" activeTab="3" xr2:uid="{01987FBA-0C43-4D57-A1ED-980A623EA11A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -600,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -617,6 +617,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,9 +638,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -675,7 +678,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -781,7 +784,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -923,7 +926,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -933,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568B4C4C-83DB-4A70-945D-1E2CD975EDEC}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +966,7 @@
       <c r="E1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>109</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -3916,7 +3919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC385C56-7C0F-4654-BE56-9A01BC3AB1C1}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -4802,7 +4805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA44155-462A-45B4-AE73-42268B7F71C0}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -6122,10 +6125,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B98632-E123-484A-A625-6FE2F1AFB17B}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6149,6 +6152,294 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/data/userdata.xlsx
+++ b/src/data/userdata.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linus\Desktop\NUS\IEX\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FCEED6-0B43-4D1F-AD1D-A93E85F5EB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112687DD-0880-4E58-A380-28F42F741C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="0" windowWidth="27015" windowHeight="14865" activeTab="3" xr2:uid="{01987FBA-0C43-4D57-A1ED-980A623EA11A}"/>
+    <workbookView xWindow="10845" yWindow="495" windowWidth="16515" windowHeight="14865" firstSheet="1" activeTab="4" xr2:uid="{01987FBA-0C43-4D57-A1ED-980A623EA11A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Hetero" sheetId="2" r:id="rId2"/>
     <sheet name="Homo" sheetId="3" r:id="rId3"/>
     <sheet name="Dual test" sheetId="4" r:id="rId4"/>
+    <sheet name="Feedbacktest" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="147">
   <si>
     <t>Gender</t>
   </si>
@@ -600,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -620,6 +621,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6127,8 +6129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B98632-E123-484A-A625-6FE2F1AFB17B}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6443,4 +6445,667 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25208AD9-798C-44FD-861F-F90231C4CD8E}">
+  <dimension ref="A1:O44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <v>0.35714286000000001</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="3">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="3">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="D24" s="3">
+        <v>14</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="D25" s="3">
+        <v>23</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="D26" s="3">
+        <v>24</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="D27" s="3">
+        <v>34</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="F30" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="L30" s="3">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>0.25</v>
+      </c>
+      <c r="I33">
+        <v>0.4166666</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333</v>
+      </c>
+    </row>
+    <row r="40" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>0.10714</v>
+      </c>
+      <c r="I40">
+        <v>5.9523E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>0.16666600000000001</v>
+      </c>
+      <c r="L44">
+        <v>0.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>